--- a/data/georgia_census/mcxeta-mtianeti/mcxeta/education_graduates.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/mcxeta/education_graduates.xlsx
@@ -1864,13 +1864,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76EB358A-992B-4542-87BC-4142552B7450}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7012F78E-51ED-4AC0-B988-D3536A2FE92D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288E50AE-3C8F-4869-ADEB-D55BA71157D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C7A35AA-A15D-49E8-ACC3-E33E6F77F184}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01F91899-9E5E-46F3-A709-1C443F17DB62}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEA76B67-3F9B-45C2-A04D-91F19E78F41A}"/>
 </file>